--- a/data/trans_camb/PLURIPATOLOGIA-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/PLURIPATOLOGIA-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 2,31</t>
+          <t>-4,56; 2,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,15; 10,58</t>
+          <t>0,41; 10,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,58; 12,53</t>
+          <t>2,41; 13,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 12,48</t>
+          <t>-0,34; 12,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,25; 16,85</t>
+          <t>3,18; 17,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,25; 25,92</t>
+          <t>14,07; 25,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 6,03</t>
+          <t>-0,74; 6,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,37; 12,12</t>
+          <t>3,26; 11,52</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,11; 18,67</t>
+          <t>10,33; 18,74</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-40,43; —</t>
+          <t>-55,53; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,16; —</t>
+          <t>16,59; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-21,65; 1042,15</t>
+          <t>-29,66; 1157,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>27,29; 1793,43</t>
+          <t>23,8; 1277,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>183,38; 2964,34</t>
+          <t>197,78; 2498,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-21,62; 544,49</t>
+          <t>-35,33; 512,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>66,02; 934,8</t>
+          <t>57,54; 890,19</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>200,74; 1743,37</t>
+          <t>208,96; 1725,94</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 3,79</t>
+          <t>-0,39; 4,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 3,05</t>
+          <t>-0,89; 2,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,48; 10,97</t>
+          <t>5,66; 11,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,09; 9,16</t>
+          <t>3,06; 8,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,99; 10,13</t>
+          <t>3,74; 9,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,34; 15,37</t>
+          <t>9,33; 15,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,91; 5,74</t>
+          <t>1,91; 5,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,11; 6,08</t>
+          <t>2,03; 5,71</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,36; 12,47</t>
+          <t>8,57; 12,38</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-14,91; 215,52</t>
+          <t>-13,02; 247,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-32,41; 161,79</t>
+          <t>-28,75; 167,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>137,81; 634,04</t>
+          <t>149,09; 684,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>53,26; 313,18</t>
+          <t>53,81; 328,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>73,31; 354,57</t>
+          <t>72,86; 358,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>161,06; 535,13</t>
+          <t>176,91; 570,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>45,81; 220,62</t>
+          <t>48,09; 221,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>52,5; 238,64</t>
+          <t>48,14; 223,75</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>201,34; 499,23</t>
+          <t>208,24; 502,5</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 1,51</t>
+          <t>-1,76; 1,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 1,0</t>
+          <t>-2,05; 1,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,25; 6,55</t>
+          <t>2,27; 6,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,92; 5,8</t>
+          <t>0,87; 5,59</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,59; 5,58</t>
+          <t>0,7; 5,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,41; 12,19</t>
+          <t>7,41; 12,24</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,17; 3,18</t>
+          <t>0,09; 3,15</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 2,71</t>
+          <t>-0,1; 2,87</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,34; 8,78</t>
+          <t>5,47; 8,74</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-37,27; 50,37</t>
+          <t>-38,31; 53,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-46,57; 34,68</t>
+          <t>-47,42; 36,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>47,04; 223,18</t>
+          <t>46,43; 226,94</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,04; 129,1</t>
+          <t>9,95; 111,89</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,45; 115,83</t>
+          <t>7,49; 114,17</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>100,1; 258,94</t>
+          <t>101,67; 274,43</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,7; 80,32</t>
+          <t>-0,15; 76,33</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 67,11</t>
+          <t>-1,8; 72,72</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>93,8; 219,4</t>
+          <t>95,66; 218,3</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 2,54</t>
+          <t>-1,77; 2,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 1,66</t>
+          <t>-2,18; 1,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,75; 6,81</t>
+          <t>1,97; 6,53</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 1,94</t>
+          <t>-4,22; 2,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 1,31</t>
+          <t>-4,82; 1,23</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,85; 40,45</t>
+          <t>3,61; 41,72</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 1,62</t>
+          <t>-2,1; 1,67</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 0,83</t>
+          <t>-2,69; 0,82</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,81; 27,86</t>
+          <t>3,84; 29,39</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-38,8; 114,94</t>
+          <t>-39,8; 97,38</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-50,45; 74,77</t>
+          <t>-48,96; 65,14</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>36,47; 265,6</t>
+          <t>38,57; 261,62</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-35,19; 23,62</t>
+          <t>-35,18; 24,54</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-41,0; 16,26</t>
+          <t>-39,89; 15,65</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>36,02; 469,45</t>
+          <t>34,13; 491,93</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-26,96; 27,84</t>
+          <t>-26,78; 28,97</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-36,9; 15,15</t>
+          <t>-34,45; 14,15</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>51,66; 439,82</t>
+          <t>52,62; 461,79</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 2,14</t>
+          <t>-1,58; 2,05</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 1,59</t>
+          <t>-1,87; 1,52</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,12; 7,02</t>
+          <t>2,97; 6,98</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,52; 6,79</t>
+          <t>1,56; 6,53</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,16; 6,64</t>
+          <t>1,1; 6,41</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>8,7; 14,08</t>
+          <t>8,35; 13,95</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,63; 3,76</t>
+          <t>0,62; 3,89</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,48</t>
+          <t>0,49; 3,6</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>6,74; 10,15</t>
+          <t>6,7; 10,3</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-36,23; 71,49</t>
+          <t>-35,49; 70,87</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-39,37; 53,57</t>
+          <t>-40,64; 51,32</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>65,61; 231,62</t>
+          <t>59,51; 237,93</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>18,91; 112,72</t>
+          <t>18,3; 107,07</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>14,18; 109,55</t>
+          <t>12,97; 106,85</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>101,46; 233,29</t>
+          <t>98,21; 235,96</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>10,11; 77,52</t>
+          <t>9,45; 80,52</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>5,21; 72,1</t>
+          <t>8,22; 74,05</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>105,52; 215,95</t>
+          <t>106,15; 215,71</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 1,33</t>
+          <t>-0,57; 1,28</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 0,98</t>
+          <t>-0,75; 1,0</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>4,19; 6,43</t>
+          <t>4,12; 6,41</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>1,84; 4,54</t>
+          <t>1,8; 4,54</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>1,67; 4,55</t>
+          <t>1,77; 4,49</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>9,5; 20,89</t>
+          <t>9,6; 21,17</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,97; 2,59</t>
+          <t>0,97; 2,68</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,48</t>
+          <t>0,84; 2,48</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>7,49; 13,98</t>
+          <t>7,44; 14,56</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-13,54; 45,07</t>
+          <t>-14,69; 43,22</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-22,21; 31,12</t>
+          <t>-19,48; 33,18</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>108,43; 212,29</t>
+          <t>104,17; 209,07</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>24,72; 74,38</t>
+          <t>24,15; 73,63</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>22,99; 75,2</t>
+          <t>22,81; 72,4</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>134,85; 323,73</t>
+          <t>134,71; 328,95</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>17,67; 54,64</t>
+          <t>17,42; 56,31</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>14,82; 52,58</t>
+          <t>15,59; 54,23</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>140,19; 269,93</t>
+          <t>138,91; 275,15</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/PLURIPATOLOGIA-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/PLURIPATOLOGIA-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 2,24</t>
+          <t>-4,17; 2,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,41; 10,91</t>
+          <t>0,51; 11,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,41; 13,0</t>
+          <t>2,21; 12,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 12,53</t>
+          <t>-0,14; 12,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,18; 17,09</t>
+          <t>3,07; 17,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,07; 25,28</t>
+          <t>13,8; 25,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 6,12</t>
+          <t>-0,6; 6,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,26; 11,52</t>
+          <t>3,59; 12,1</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,33; 18,74</t>
+          <t>9,97; 18,69</t>
         </is>
       </c>
     </row>
@@ -796,49 +796,49 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-55,53; —</t>
+          <t>-33,16; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,59; —</t>
+          <t>7,15; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-29,66; 1157,47</t>
+          <t>-27,65; 1127,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,8; 1277,72</t>
+          <t>29,77; 1766,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>197,78; 2498,71</t>
+          <t>194,43; 2692,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-35,33; 512,03</t>
+          <t>-31,29; 517,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>57,54; 890,19</t>
+          <t>72,96; 1119,78</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>208,96; 1725,94</t>
+          <t>197,87; 1574,65</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 4,01</t>
+          <t>-0,28; 3,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 2,93</t>
+          <t>-0,93; 3,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,66; 11,1</t>
+          <t>5,58; 10,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,06; 8,98</t>
+          <t>2,87; 9,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,74; 9,64</t>
+          <t>3,82; 9,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,33; 15,52</t>
+          <t>9,16; 15,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,91; 5,65</t>
+          <t>1,93; 5,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,03; 5,71</t>
+          <t>2,11; 5,75</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,57; 12,38</t>
+          <t>8,51; 12,5</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,02; 247,28</t>
+          <t>-12,59; 219,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-28,75; 167,65</t>
+          <t>-29,63; 179,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>149,09; 684,44</t>
+          <t>141,34; 640,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>53,81; 328,17</t>
+          <t>52,07; 330,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>72,86; 358,23</t>
+          <t>67,77; 373,78</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>176,91; 570,43</t>
+          <t>163,93; 581,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>48,09; 221,98</t>
+          <t>48,56; 232,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>48,14; 223,75</t>
+          <t>49,28; 225,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>208,24; 502,5</t>
+          <t>208,61; 498,0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 1,5</t>
+          <t>-1,54; 1,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 1,08</t>
+          <t>-2,18; 1,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,27; 6,7</t>
+          <t>2,25; 6,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,87; 5,59</t>
+          <t>0,62; 5,7</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,7; 5,51</t>
+          <t>0,44; 5,7</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,41; 12,24</t>
+          <t>7,38; 12,1</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,09; 3,15</t>
+          <t>0,3; 3,09</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 2,87</t>
+          <t>-0,36; 2,76</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,47; 8,74</t>
+          <t>5,46; 8,8</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-38,31; 53,08</t>
+          <t>-36,82; 62,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-47,42; 36,78</t>
+          <t>-49,03; 35,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>46,43; 226,94</t>
+          <t>45,79; 232,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9,95; 111,89</t>
+          <t>7,07; 116,07</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,49; 114,17</t>
+          <t>6,02; 124,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>101,67; 274,43</t>
+          <t>97,75; 254,09</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 76,33</t>
+          <t>5,23; 74,61</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 72,72</t>
+          <t>-6,51; 69,29</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>95,66; 218,3</t>
+          <t>96,73; 220,73</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 2,36</t>
+          <t>-1,4; 2,6</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 1,66</t>
+          <t>-2,16; 1,76</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,97; 6,53</t>
+          <t>2,0; 6,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 2,03</t>
+          <t>-4,06; 2,51</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 1,23</t>
+          <t>-5,06; 1,05</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,61; 41,72</t>
+          <t>3,62; 40,81</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 1,67</t>
+          <t>-1,99; 1,67</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 0,82</t>
+          <t>-2,86; 0,87</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,84; 29,39</t>
+          <t>3,9; 29,55</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-39,8; 97,38</t>
+          <t>-33,62; 109,55</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-48,96; 65,14</t>
+          <t>-48,07; 75,29</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>38,57; 261,62</t>
+          <t>40,79; 281,49</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-35,18; 24,54</t>
+          <t>-34,54; 30,83</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-39,89; 15,65</t>
+          <t>-43,39; 12,02</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>34,13; 491,93</t>
+          <t>29,87; 440,76</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-26,78; 28,97</t>
+          <t>-26,21; 30,29</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-34,45; 14,15</t>
+          <t>-36,62; 15,52</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>52,62; 461,79</t>
+          <t>52,81; 466,26</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 2,05</t>
+          <t>-1,64; 1,9</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 1,52</t>
+          <t>-1,86; 1,44</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,97; 6,98</t>
+          <t>2,95; 6,99</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,56; 6,53</t>
+          <t>1,48; 6,8</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,1; 6,41</t>
+          <t>0,92; 6,45</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>8,35; 13,95</t>
+          <t>8,45; 13,65</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,62; 3,89</t>
+          <t>0,67; 3,89</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,49; 3,6</t>
+          <t>0,35; 3,65</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>6,7; 10,3</t>
+          <t>6,67; 10,37</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-35,49; 70,87</t>
+          <t>-36,65; 64,69</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-40,64; 51,32</t>
+          <t>-41,98; 47,4</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>59,51; 237,93</t>
+          <t>64,78; 240,31</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>18,3; 107,07</t>
+          <t>16,2; 114,76</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>12,97; 106,85</t>
+          <t>9,49; 105,25</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>98,21; 235,96</t>
+          <t>101,06; 235,51</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>9,45; 80,52</t>
+          <t>10,71; 79,67</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>8,22; 74,05</t>
+          <t>5,61; 76,74</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>106,15; 215,71</t>
+          <t>107,45; 216,74</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 1,28</t>
+          <t>-0,52; 1,3</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 1,0</t>
+          <t>-0,77; 0,95</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>4,12; 6,41</t>
+          <t>4,18; 6,44</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>1,8; 4,54</t>
+          <t>1,92; 4,55</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>1,77; 4,49</t>
+          <t>1,79; 4,51</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>9,6; 21,17</t>
+          <t>9,49; 21,63</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,97; 2,68</t>
+          <t>1,0; 2,57</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,84; 2,48</t>
+          <t>0,81; 2,45</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>7,44; 14,56</t>
+          <t>7,45; 14,91</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-14,69; 43,22</t>
+          <t>-14,13; 42,27</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-19,48; 33,18</t>
+          <t>-20,02; 31,73</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>104,17; 209,07</t>
+          <t>106,9; 218,25</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>24,15; 73,63</t>
+          <t>25,56; 73,4</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>22,81; 72,4</t>
+          <t>24,48; 73,9</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>134,71; 328,95</t>
+          <t>132,16; 308,56</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>17,42; 56,31</t>
+          <t>17,96; 53,84</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>15,59; 54,23</t>
+          <t>14,75; 51,27</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>138,91; 275,15</t>
+          <t>138,07; 296,72</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/PLURIPATOLOGIA-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/PLURIPATOLOGIA-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 2,39</t>
+          <t>-4,22; 2,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,51; 11,4</t>
+          <t>0,15; 10,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,21; 12,91</t>
+          <t>2,58; 12,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 12,69</t>
+          <t>-0,15; 12,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,07; 17,41</t>
+          <t>3,25; 16,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,8; 25,93</t>
+          <t>13,25; 25,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 6,26</t>
+          <t>-0,63; 6,03</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,59; 12,1</t>
+          <t>3,37; 12,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,97; 18,69</t>
+          <t>10,11; 18,67</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-33,16; —</t>
+          <t>-40,43; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,15; —</t>
+          <t>5,16; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-27,65; 1127,54</t>
+          <t>-21,65; 1042,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>29,77; 1766,68</t>
+          <t>27,29; 1793,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>194,43; 2692,86</t>
+          <t>183,38; 2964,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-31,29; 517,11</t>
+          <t>-21,62; 544,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>72,96; 1119,78</t>
+          <t>66,02; 934,8</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>197,87; 1574,65</t>
+          <t>200,74; 1743,37</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 3,92</t>
+          <t>-0,42; 3,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 3,09</t>
+          <t>-1,06; 3,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,58; 10,99</t>
+          <t>5,48; 10,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,87; 9,19</t>
+          <t>3,09; 9,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,82; 9,96</t>
+          <t>3,99; 10,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,16; 15,31</t>
+          <t>9,34; 15,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,93; 5,79</t>
+          <t>1,91; 5,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,11; 5,75</t>
+          <t>2,11; 6,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,51; 12,5</t>
+          <t>8,36; 12,47</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-12,59; 219,22</t>
+          <t>-14,91; 215,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-29,63; 179,96</t>
+          <t>-32,41; 161,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>141,34; 640,51</t>
+          <t>137,81; 634,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>52,07; 330,81</t>
+          <t>53,26; 313,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>67,77; 373,78</t>
+          <t>73,31; 354,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>163,93; 581,52</t>
+          <t>161,06; 535,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>48,56; 232,24</t>
+          <t>45,81; 220,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>49,28; 225,0</t>
+          <t>52,5; 238,64</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>208,61; 498,0</t>
+          <t>201,34; 499,23</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 1,69</t>
+          <t>-1,74; 1,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 1,08</t>
+          <t>-2,18; 1,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,25; 6,76</t>
+          <t>2,25; 6,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,62; 5,7</t>
+          <t>0,92; 5,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,44; 5,7</t>
+          <t>0,59; 5,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,38; 12,1</t>
+          <t>7,41; 12,19</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,3; 3,09</t>
+          <t>0,17; 3,18</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 2,76</t>
+          <t>-0,3; 2,71</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,46; 8,8</t>
+          <t>5,34; 8,78</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-36,82; 62,25</t>
+          <t>-37,27; 50,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-49,03; 35,92</t>
+          <t>-46,57; 34,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>45,79; 232,3</t>
+          <t>47,04; 223,18</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,07; 116,07</t>
+          <t>13,04; 129,1</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,02; 124,94</t>
+          <t>8,45; 115,83</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>97,75; 254,09</t>
+          <t>100,1; 258,94</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,23; 74,61</t>
+          <t>2,7; 80,32</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 69,29</t>
+          <t>-5,65; 67,11</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>96,73; 220,73</t>
+          <t>93,8; 219,4</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 2,6</t>
+          <t>-1,76; 2,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 1,76</t>
+          <t>-2,29; 1,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,0; 6,77</t>
+          <t>1,75; 6,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 2,51</t>
+          <t>-4,23; 1,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 1,05</t>
+          <t>-4,99; 1,31</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,62; 40,81</t>
+          <t>3,85; 40,45</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 1,67</t>
+          <t>-2,05; 1,62</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 0,87</t>
+          <t>-2,93; 0,83</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,9; 29,55</t>
+          <t>3,81; 27,86</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-33,62; 109,55</t>
+          <t>-38,8; 114,94</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-48,07; 75,29</t>
+          <t>-50,45; 74,77</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>40,79; 281,49</t>
+          <t>36,47; 265,6</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-34,54; 30,83</t>
+          <t>-35,19; 23,62</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-43,39; 12,02</t>
+          <t>-41,0; 16,26</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>29,87; 440,76</t>
+          <t>36,02; 469,45</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-26,21; 30,29</t>
+          <t>-26,96; 27,84</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-36,62; 15,52</t>
+          <t>-36,9; 15,15</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>52,81; 466,26</t>
+          <t>51,66; 439,82</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 1,9</t>
+          <t>-1,61; 2,14</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 1,44</t>
+          <t>-1,74; 1,59</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,95; 6,99</t>
+          <t>3,12; 7,02</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,48; 6,8</t>
+          <t>1,52; 6,79</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,92; 6,45</t>
+          <t>1,16; 6,64</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>8,45; 13,65</t>
+          <t>8,7; 14,08</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,67; 3,89</t>
+          <t>0,63; 3,76</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,65</t>
+          <t>0,37; 3,48</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>6,67; 10,37</t>
+          <t>6,74; 10,15</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-36,65; 64,69</t>
+          <t>-36,23; 71,49</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-41,98; 47,4</t>
+          <t>-39,37; 53,57</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>64,78; 240,31</t>
+          <t>65,61; 231,62</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>16,2; 114,76</t>
+          <t>18,91; 112,72</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>9,49; 105,25</t>
+          <t>14,18; 109,55</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>101,06; 235,51</t>
+          <t>101,46; 233,29</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>10,71; 79,67</t>
+          <t>10,11; 77,52</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>5,61; 76,74</t>
+          <t>5,21; 72,1</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>107,45; 216,74</t>
+          <t>105,52; 215,95</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 1,3</t>
+          <t>-0,53; 1,33</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 0,95</t>
+          <t>-0,85; 0,98</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>4,18; 6,44</t>
+          <t>4,19; 6,43</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>1,92; 4,55</t>
+          <t>1,84; 4,54</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>1,79; 4,51</t>
+          <t>1,67; 4,55</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>9,49; 21,63</t>
+          <t>9,5; 20,89</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>1,0; 2,57</t>
+          <t>0,97; 2,59</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,45</t>
+          <t>0,81; 2,48</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>7,45; 14,91</t>
+          <t>7,49; 13,98</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-14,13; 42,27</t>
+          <t>-13,54; 45,07</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-20,02; 31,73</t>
+          <t>-22,21; 31,12</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>106,9; 218,25</t>
+          <t>108,43; 212,29</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>25,56; 73,4</t>
+          <t>24,72; 74,38</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>24,48; 73,9</t>
+          <t>22,99; 75,2</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>132,16; 308,56</t>
+          <t>134,85; 323,73</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>17,96; 53,84</t>
+          <t>17,67; 54,64</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>14,75; 51,27</t>
+          <t>14,82; 52,58</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>138,07; 296,72</t>
+          <t>140,19; 269,93</t>
         </is>
       </c>
     </row>
